--- a/Consolidado_de_ventas.xlsx
+++ b/Consolidado_de_ventas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\pandas\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E12A426-AE82-431E-9045-58242C6D5E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C3FAA1-090F-4190-8853-27DEF73818D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{95CAD538-1A70-4608-A7EC-089BF9153F33}"/>
+    <workbookView xWindow="-200" yWindow="480" windowWidth="11440" windowHeight="9560" xr2:uid="{95CAD538-1A70-4608-A7EC-089BF9153F33}"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,16 @@
     <sheet name="MARZO" sheetId="3" r:id="rId3"/>
     <sheet name="CONSOLIDADO" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Ana">ENERO!$B$2:$D$2</definedName>
+    <definedName name="Brenda">ENERO!$B$3:$D$3</definedName>
+    <definedName name="Carla">ENERO!$B$4:$D$4</definedName>
+    <definedName name="Diana">ENERO!$B$5:$D$5</definedName>
+    <definedName name="Maquillaje">ENERO!$B$2:$B$5</definedName>
+    <definedName name="Ropa">ENERO!$C$2:$C$5</definedName>
+    <definedName name="Vendedora">ENERO!$A$2:$A$5</definedName>
+    <definedName name="Zapatos">ENERO!$D$2:$D$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -478,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBDD7C4-3609-484B-A75A-EEB13423EA3B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3589CB-30A9-4296-8C38-09F81E0F1E66}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
